--- a/webapp/app/src/app/nakajo/システム.xlsx
+++ b/webapp/app/src/app/nakajo/システム.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{016ADA1A-8710-4621-83E4-BE3573FE88B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8529F13C-E9C5-4D9E-A49A-542F734E441C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21660" windowHeight="16500" xr2:uid="{B52DC453-EB46-474A-BF17-F431451529C0}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21690" windowHeight="16500" xr2:uid="{B52DC453-EB46-474A-BF17-F431451529C0}"/>
   </bookViews>
   <sheets>
     <sheet name="システム" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CVR改善</t>
-    <rPh sb="3" eb="5">
-      <t>カイゼン</t>
-    </rPh>
+    <t>システムコード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>システムコード</t>
+    <t>リピート率</t>
+    <rPh sb="4" eb="5">
+      <t>リツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -408,7 +408,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -422,12 +422,12 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
